--- a/Patio_Brasil.xlsx
+++ b/Patio_Brasil.xlsx
@@ -1288,8 +1288,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:DB94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AY8" sqref="AY8:AY91"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" workbookViewId="0">
+      <selection activeCell="CY2" sqref="CY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>78</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>79</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>80</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>81</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>82</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>83</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>87</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>91</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>93</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>95</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>96</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>98</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>99</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>109</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>111</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>112</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>114</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>115</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>116</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>118</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>119</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>121</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>122</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>124</v>
       </c>
@@ -17130,7 +17130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>131</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>133</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>136</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>138</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>139</v>
       </c>
@@ -19726,7 +19726,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>140</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>142</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>144</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>148</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>149</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>150</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>152</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>153</v>
       </c>
@@ -23910,7 +23910,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>154</v>
       </c>
@@ -24802,7 +24802,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>157</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>159</v>
       </c>
@@ -25994,7 +25994,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="85" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>161</v>
       </c>
@@ -26298,7 +26298,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>162</v>
       </c>
@@ -26890,7 +26890,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>164</v>
       </c>
@@ -28100,7 +28100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>168</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>169</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:106" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>170</v>
       </c>
@@ -29014,9 +29014,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:DB94">
-    <filterColumn colId="50">
+    <filterColumn colId="102">
       <filters>
-        <filter val="Ciclistas,Peatones,Motociclistas,Bicitaxistas,Buses,Taxis,Camiones ,Furgones ,Carrosparticulares,Usuarios"/>
+        <filter val="No responde"/>
       </filters>
     </filterColumn>
   </autoFilter>
